--- a/doc/CEDSOntologyCoreDraftV11.0.0.0.xlsx
+++ b/doc/CEDSOntologyCoreDraftV11.0.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\CEDS-Ontology\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D1E89EA-093C-4259-8BE1-6AC594DB5C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B46ED-2E51-429C-BCAD-64E14F91B3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15376" uniqueCount="6353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15413" uniqueCount="6389">
   <si>
     <t>Class</t>
   </si>
@@ -19098,12 +19098,120 @@
   </si>
   <si>
     <t>Person Telephone</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#rational</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#real</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#langString</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#PlainLiteral</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#XMLLiteral</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#Literal</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#anyURI</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#base64Binary</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#boolean</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#byte</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#dateTime</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#dateTimeStamp</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#decimal</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#double</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#float</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#hexBinary</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#int</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#integer</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#language</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#long</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#Name</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#NCName</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#negativeInteger</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#NMTOKEN</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#nonNegativeInteger</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#nonPositiveInteger</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#normalizedString</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#positiveInteger</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#short</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#string</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#time</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#token</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#unsignedByte</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#unsignedInt</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#unsignedLong</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#unsignedShort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -19581,7 +19689,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -19597,7 +19705,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -19952,10 +20059,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:IV52"/>
     </sheetView>
   </sheetViews>
@@ -22977,7 +23084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
@@ -24244,7 +24351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24289,7 +24396,7 @@
       <c r="B2" s="5" t="s">
         <v>2746</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>6174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -24309,7 +24416,7 @@
       <c r="B3" s="5" t="s">
         <v>2748</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>6175</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -26004,7 +26111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26112,201 +26219,313 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>6359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>6367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>6369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>6386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>222</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6388</v>
       </c>
     </row>
   </sheetData>
@@ -26315,7 +26534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35308,7 +35527,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>779</v>
       </c>
@@ -35340,7 +35559,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>784</v>
       </c>
@@ -35372,7 +35591,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>815</v>
       </c>
@@ -35404,7 +35623,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>818</v>
       </c>
@@ -35436,7 +35655,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>853</v>
       </c>
@@ -35468,7 +35687,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>917</v>
       </c>
@@ -35500,7 +35719,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>2730</v>
       </c>
@@ -35532,7 +35751,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>2732</v>
       </c>
@@ -35564,7 +35783,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>2734</v>
       </c>
@@ -35596,7 +35815,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>2734</v>
       </c>
@@ -35660,7 +35879,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>935</v>
       </c>
@@ -35756,7 +35975,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>958</v>
       </c>
@@ -35788,7 +36007,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>964</v>
       </c>
@@ -35820,7 +36039,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>965</v>
       </c>
@@ -35916,7 +36135,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>980</v>
       </c>
@@ -35948,7 +36167,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>994</v>
       </c>
@@ -35980,7 +36199,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>995</v>
       </c>
@@ -36012,7 +36231,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>996</v>
       </c>
@@ -36076,7 +36295,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>2728</v>
       </c>
@@ -36140,7 +36359,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>2736</v>
       </c>
@@ -36172,7 +36391,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>1306</v>
       </c>
@@ -36332,7 +36551,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>1415</v>
       </c>
@@ -36364,7 +36583,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>2741</v>
       </c>
@@ -36428,7 +36647,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>100</v>
       </c>
@@ -36925,7 +37144,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>100</v>
       </c>
@@ -37353,7 +37572,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>962</v>
       </c>
@@ -37388,7 +37607,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>961</v>
       </c>
@@ -37423,7 +37642,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>941</v>
       </c>
@@ -37458,7 +37677,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>843</v>
       </c>
@@ -37493,7 +37712,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>1472</v>
       </c>
@@ -37563,7 +37782,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>1271</v>
       </c>
@@ -39091,7 +39310,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A393" s="5" t="s">
         <v>922</v>
       </c>
@@ -39161,7 +39380,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A395" s="5" t="s">
         <v>923</v>
       </c>
@@ -39196,7 +39415,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>924</v>
       </c>
@@ -39371,7 +39590,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A401" s="5" t="s">
         <v>1108</v>
       </c>
@@ -39511,7 +39730,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
         <v>1404</v>
       </c>
@@ -42033,7 +42252,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>474</v>
       </c>
@@ -42062,7 +42281,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>1355</v>
       </c>
@@ -42091,7 +42310,7 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>1492</v>
       </c>
@@ -42120,7 +42339,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>820</v>
       </c>
@@ -42207,7 +42426,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>1496</v>
       </c>
@@ -42236,7 +42455,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>550</v>
       </c>
@@ -42265,7 +42484,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="5" t="s">
         <v>436</v>
       </c>
@@ -42294,7 +42513,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="5" t="s">
         <v>526</v>
       </c>
@@ -42747,7 +42966,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
         <v>997</v>
       </c>
@@ -42817,7 +43036,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A504" s="5" t="s">
         <v>835</v>
       </c>
@@ -42849,7 +43068,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A505" s="5" t="s">
         <v>879</v>
       </c>
@@ -42881,7 +43100,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A506" s="5" t="s">
         <v>1354</v>
       </c>
@@ -42913,7 +43132,7 @@
         <v>3781</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A507" s="5" t="s">
         <v>1063</v>
       </c>
@@ -42945,7 +43164,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A508" s="5" t="s">
         <v>1234</v>
       </c>
@@ -42977,7 +43196,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A509" s="5" t="s">
         <v>1279</v>
       </c>
@@ -43009,7 +43228,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A510" s="5" t="s">
         <v>1332</v>
       </c>
@@ -43041,7 +43260,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="5" t="s">
         <v>1446</v>
       </c>
@@ -43073,7 +43292,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="5" t="s">
         <v>1451</v>
       </c>
@@ -43105,7 +43324,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" s="5" t="s">
         <v>1495</v>
       </c>
@@ -43137,7 +43356,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A514" s="5" t="s">
         <v>1524</v>
       </c>
@@ -43169,7 +43388,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A515" s="5" t="s">
         <v>807</v>
       </c>
@@ -43201,7 +43420,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" s="5" t="s">
         <v>821</v>
       </c>
@@ -43233,7 +43452,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="5" t="s">
         <v>834</v>
       </c>
@@ -43265,7 +43484,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A518" s="5" t="s">
         <v>919</v>
       </c>
@@ -43297,7 +43516,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="5" t="s">
         <v>945</v>
       </c>
@@ -43361,7 +43580,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" s="5" t="s">
         <v>1005</v>
       </c>
@@ -43393,7 +43612,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="5" t="s">
         <v>1014</v>
       </c>
@@ -43425,7 +43644,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="5" t="s">
         <v>1067</v>
       </c>
@@ -43457,7 +43676,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="5" t="s">
         <v>1269</v>
       </c>
@@ -43489,7 +43708,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A525" s="5" t="s">
         <v>1270</v>
       </c>
@@ -43521,7 +43740,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="5" t="s">
         <v>1278</v>
       </c>
@@ -43553,7 +43772,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" s="5" t="s">
         <v>449</v>
       </c>
@@ -43585,7 +43804,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A528" s="5" t="s">
         <v>1293</v>
       </c>
@@ -43617,7 +43836,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A529" s="5" t="s">
         <v>1310</v>
       </c>
@@ -43649,7 +43868,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A530" s="5" t="s">
         <v>1429</v>
       </c>
@@ -44530,7 +44749,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="5" t="s">
         <v>328</v>
       </c>
@@ -44977,7 +45196,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
         <v>1350</v>
       </c>
@@ -45012,7 +45231,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A574" s="5" t="s">
         <v>1532</v>
       </c>
@@ -45082,7 +45301,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A576" s="5" t="s">
         <v>936</v>
       </c>
@@ -45117,7 +45336,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A577" s="5" t="s">
         <v>1248</v>
       </c>
@@ -45152,7 +45371,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A578" s="5" t="s">
         <v>782</v>
       </c>
@@ -45187,7 +45406,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" s="5" t="s">
         <v>950</v>
       </c>
@@ -45222,7 +45441,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A580" s="5" t="s">
         <v>1361</v>
       </c>
@@ -45257,7 +45476,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A581" s="5" t="s">
         <v>960</v>
       </c>
@@ -45292,7 +45511,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A582" s="5" t="s">
         <v>780</v>
       </c>
@@ -45327,7 +45546,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A583" s="5" t="s">
         <v>943</v>
       </c>
@@ -45455,7 +45674,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A587" s="5" t="s">
         <v>223</v>
       </c>
@@ -45635,7 +45854,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A593" s="5" t="s">
         <v>781</v>
       </c>
@@ -45670,7 +45889,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A594" s="5" t="s">
         <v>796</v>
       </c>
@@ -45705,7 +45924,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>920</v>
       </c>
@@ -45740,7 +45959,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>921</v>
       </c>
@@ -45775,7 +45994,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>926</v>
       </c>
@@ -45810,7 +46029,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A598" s="5" t="s">
         <v>927</v>
       </c>
@@ -45845,7 +46064,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A599" s="5" t="s">
         <v>928</v>
       </c>
@@ -45880,7 +46099,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A600" s="5" t="s">
         <v>929</v>
       </c>
@@ -45915,7 +46134,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A601" s="5" t="s">
         <v>932</v>
       </c>
@@ -45950,7 +46169,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A602" s="5" t="s">
         <v>933</v>
       </c>
@@ -45985,7 +46204,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A603" s="5" t="s">
         <v>937</v>
       </c>
@@ -46020,7 +46239,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A604" s="5" t="s">
         <v>938</v>
       </c>
@@ -46055,7 +46274,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A605" s="5" t="s">
         <v>798</v>
       </c>
@@ -46090,7 +46309,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A606" s="5" t="s">
         <v>939</v>
       </c>
@@ -46125,7 +46344,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A607" s="5" t="s">
         <v>944</v>
       </c>
@@ -46160,7 +46379,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A608" s="5" t="s">
         <v>946</v>
       </c>
@@ -46195,7 +46414,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A609" s="5" t="s">
         <v>948</v>
       </c>
@@ -46230,7 +46449,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A610" s="5" t="s">
         <v>952</v>
       </c>
@@ -46265,7 +46484,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A611" s="5" t="s">
         <v>959</v>
       </c>
@@ -46300,7 +46519,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A612" s="5" t="s">
         <v>963</v>
       </c>
@@ -46335,7 +46554,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>966</v>
       </c>
@@ -46370,7 +46589,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>967</v>
       </c>
@@ -46405,7 +46624,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A615" s="5" t="s">
         <v>968</v>
       </c>
@@ -46440,7 +46659,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A616" s="5" t="s">
         <v>800</v>
       </c>
@@ -46475,7 +46694,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A617" s="5" t="s">
         <v>969</v>
       </c>
@@ -46510,7 +46729,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A618" s="5" t="s">
         <v>970</v>
       </c>
@@ -46545,7 +46764,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A619" s="5" t="s">
         <v>971</v>
       </c>
@@ -46580,7 +46799,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A620" s="5" t="s">
         <v>972</v>
       </c>
@@ -46615,7 +46834,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A621" s="5" t="s">
         <v>976</v>
       </c>
@@ -46650,7 +46869,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A622" s="5" t="s">
         <v>978</v>
       </c>
@@ -46685,7 +46904,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A623" s="5" t="s">
         <v>981</v>
       </c>
@@ -46720,7 +46939,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A624" s="5" t="s">
         <v>982</v>
       </c>
@@ -46755,7 +46974,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A625" s="5" t="s">
         <v>983</v>
       </c>
@@ -46790,7 +47009,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A626" s="5" t="s">
         <v>984</v>
       </c>
@@ -46825,7 +47044,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A627" s="5" t="s">
         <v>801</v>
       </c>
@@ -46860,7 +47079,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A628" s="5" t="s">
         <v>985</v>
       </c>
@@ -46895,7 +47114,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A629" s="5" t="s">
         <v>986</v>
       </c>
@@ -46930,7 +47149,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A630" s="5" t="s">
         <v>987</v>
       </c>
@@ -46965,7 +47184,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A631" s="5" t="s">
         <v>988</v>
       </c>
@@ -47000,7 +47219,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A632" s="5" t="s">
         <v>991</v>
       </c>
@@ -47035,7 +47254,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A633" s="5" t="s">
         <v>998</v>
       </c>
@@ -47070,7 +47289,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A634" s="5" t="s">
         <v>999</v>
       </c>
@@ -47105,7 +47324,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A635" s="5" t="s">
         <v>1000</v>
       </c>
@@ -47140,7 +47359,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A636" s="5" t="s">
         <v>1001</v>
       </c>
@@ -47175,7 +47394,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A637" s="5" t="s">
         <v>1002</v>
       </c>
@@ -47210,7 +47429,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A638" s="5" t="s">
         <v>804</v>
       </c>
@@ -47245,7 +47464,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A639" s="5" t="s">
         <v>1003</v>
       </c>
@@ -47280,7 +47499,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A640" s="5" t="s">
         <v>1004</v>
       </c>
@@ -47315,7 +47534,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A641" s="5" t="s">
         <v>1006</v>
       </c>
@@ -47350,7 +47569,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A642" s="5" t="s">
         <v>1007</v>
       </c>
@@ -47385,7 +47604,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A643" s="5" t="s">
         <v>1008</v>
       </c>
@@ -47420,7 +47639,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A644" s="5" t="s">
         <v>1009</v>
       </c>
@@ -47455,7 +47674,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A645" s="5" t="s">
         <v>1010</v>
       </c>
@@ -47490,7 +47709,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A646" s="5" t="s">
         <v>1011</v>
       </c>
@@ -47525,7 +47744,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A647" s="5" t="s">
         <v>1012</v>
       </c>
@@ -47560,7 +47779,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A648" s="5" t="s">
         <v>1015</v>
       </c>
@@ -47595,7 +47814,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A649" s="5" t="s">
         <v>805</v>
       </c>
@@ -47630,7 +47849,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A650" s="5" t="s">
         <v>1018</v>
       </c>
@@ -47665,7 +47884,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A651" s="5" t="s">
         <v>1019</v>
       </c>
@@ -47700,7 +47919,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A652" s="5" t="s">
         <v>1020</v>
       </c>
@@ -47735,7 +47954,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A653" s="5" t="s">
         <v>1021</v>
       </c>
@@ -47770,7 +47989,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A654" s="5" t="s">
         <v>1022</v>
       </c>
@@ -47805,7 +48024,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A655" s="5" t="s">
         <v>1023</v>
       </c>
@@ -47840,7 +48059,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A656" s="5" t="s">
         <v>1024</v>
       </c>
@@ -47875,7 +48094,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A657" s="5" t="s">
         <v>1025</v>
       </c>
@@ -47910,7 +48129,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A658" s="5" t="s">
         <v>1026</v>
       </c>
@@ -47945,7 +48164,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A659" s="5" t="s">
         <v>1027</v>
       </c>
@@ -47980,7 +48199,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A660" s="5" t="s">
         <v>806</v>
       </c>
@@ -48015,7 +48234,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A661" s="5" t="s">
         <v>1028</v>
       </c>
@@ -48050,7 +48269,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A662" s="5" t="s">
         <v>1030</v>
       </c>
@@ -48085,7 +48304,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A663" s="5" t="s">
         <v>1031</v>
       </c>
@@ -48120,7 +48339,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A664" s="5" t="s">
         <v>1032</v>
       </c>
@@ -48155,7 +48374,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A665" s="5" t="s">
         <v>1033</v>
       </c>
@@ -48190,7 +48409,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A666" s="5" t="s">
         <v>1034</v>
       </c>
@@ -48225,7 +48444,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A667" s="5" t="s">
         <v>1035</v>
       </c>
@@ -48260,7 +48479,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A668" s="5" t="s">
         <v>1036</v>
       </c>
@@ -48295,7 +48514,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A669" s="5" t="s">
         <v>1037</v>
       </c>
@@ -48330,7 +48549,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A670" s="5" t="s">
         <v>1038</v>
       </c>
@@ -48365,7 +48584,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A671" s="5" t="s">
         <v>808</v>
       </c>
@@ -48400,7 +48619,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A672" s="5" t="s">
         <v>1039</v>
       </c>
@@ -48435,7 +48654,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A673" s="5" t="s">
         <v>1040</v>
       </c>
@@ -48470,7 +48689,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A674" s="5" t="s">
         <v>1041</v>
       </c>
@@ -48505,7 +48724,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A675" s="5" t="s">
         <v>1042</v>
       </c>
@@ -48540,7 +48759,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A676" s="5" t="s">
         <v>1043</v>
       </c>
@@ -48575,7 +48794,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A677" s="5" t="s">
         <v>1044</v>
       </c>
@@ -48610,7 +48829,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A678" s="5" t="s">
         <v>1046</v>
       </c>
@@ -48645,7 +48864,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A679" s="5" t="s">
         <v>1047</v>
       </c>
@@ -48680,7 +48899,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A680" s="5" t="s">
         <v>1048</v>
       </c>
@@ -48715,7 +48934,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A681" s="5" t="s">
         <v>1049</v>
       </c>
@@ -48750,7 +48969,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A682" s="5" t="s">
         <v>812</v>
       </c>
@@ -48785,7 +49004,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A683" s="5" t="s">
         <v>1050</v>
       </c>
@@ -48820,7 +49039,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A684" s="5" t="s">
         <v>1051</v>
       </c>
@@ -48855,7 +49074,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A685" s="5" t="s">
         <v>1052</v>
       </c>
@@ -48890,7 +49109,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A686" s="5" t="s">
         <v>1053</v>
       </c>
@@ -48925,7 +49144,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A687" s="5" t="s">
         <v>1054</v>
       </c>
@@ -48960,7 +49179,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A688" s="5" t="s">
         <v>1055</v>
       </c>
@@ -48995,7 +49214,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A689" s="5" t="s">
         <v>1056</v>
       </c>
@@ -49030,7 +49249,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A690" s="5" t="s">
         <v>1057</v>
       </c>
@@ -49065,7 +49284,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A691" s="5" t="s">
         <v>1058</v>
       </c>
@@ -49100,7 +49319,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A692" s="5" t="s">
         <v>1059</v>
       </c>
@@ -49135,7 +49354,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A693" s="5" t="s">
         <v>813</v>
       </c>
@@ -49170,7 +49389,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A694" s="5" t="s">
         <v>1060</v>
       </c>
@@ -49205,7 +49424,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A695" s="5" t="s">
         <v>1061</v>
       </c>
@@ -49240,7 +49459,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A696" s="5" t="s">
         <v>1062</v>
       </c>
@@ -49275,7 +49494,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A697" s="5" t="s">
         <v>1065</v>
       </c>
@@ -49310,7 +49529,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A698" s="5" t="s">
         <v>1068</v>
       </c>
@@ -49345,7 +49564,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A699" s="5" t="s">
         <v>1069</v>
       </c>
@@ -49380,7 +49599,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A700" s="5" t="s">
         <v>1070</v>
       </c>
@@ -49415,7 +49634,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A701" s="5" t="s">
         <v>1071</v>
       </c>
@@ -49450,7 +49669,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A702" s="5" t="s">
         <v>1072</v>
       </c>
@@ -49485,7 +49704,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A703" s="5" t="s">
         <v>1075</v>
       </c>
@@ -49520,7 +49739,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A704" s="5" t="s">
         <v>788</v>
       </c>
@@ -49555,7 +49774,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A705" s="5" t="s">
         <v>814</v>
       </c>
@@ -49590,7 +49809,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A706" s="5" t="s">
         <v>1076</v>
       </c>
@@ -49625,7 +49844,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A707" s="5" t="s">
         <v>1078</v>
       </c>
@@ -49660,7 +49879,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A708" s="5" t="s">
         <v>1079</v>
       </c>
@@ -49695,7 +49914,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A709" s="5" t="s">
         <v>1080</v>
       </c>
@@ -49730,7 +49949,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A710" s="5" t="s">
         <v>1081</v>
       </c>
@@ -49765,7 +49984,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A711" s="5" t="s">
         <v>1082</v>
       </c>
@@ -49800,7 +50019,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A712" s="5" t="s">
         <v>1084</v>
       </c>
@@ -49835,7 +50054,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A713" s="5" t="s">
         <v>1085</v>
       </c>
@@ -49870,7 +50089,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A714" s="5" t="s">
         <v>1086</v>
       </c>
@@ -49905,7 +50124,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A715" s="5" t="s">
         <v>1087</v>
       </c>
@@ -49940,7 +50159,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A716" s="5" t="s">
         <v>816</v>
       </c>
@@ -49975,7 +50194,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A717" s="5" t="s">
         <v>1088</v>
       </c>
@@ -50010,7 +50229,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A718" s="5" t="s">
         <v>1090</v>
       </c>
@@ -50045,7 +50264,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A719" s="5" t="s">
         <v>1091</v>
       </c>
@@ -50080,7 +50299,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A720" s="5" t="s">
         <v>1092</v>
       </c>
@@ -50115,7 +50334,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A721" s="5" t="s">
         <v>1093</v>
       </c>
@@ -50150,7 +50369,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A722" s="5" t="s">
         <v>1094</v>
       </c>
@@ -50185,7 +50404,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A723" s="5" t="s">
         <v>1095</v>
       </c>
@@ -50220,7 +50439,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A724" s="5" t="s">
         <v>1096</v>
       </c>
@@ -50255,7 +50474,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A725" s="5" t="s">
         <v>1097</v>
       </c>
@@ -50290,7 +50509,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A726" s="5" t="s">
         <v>1098</v>
       </c>
@@ -50325,7 +50544,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A727" s="5" t="s">
         <v>819</v>
       </c>
@@ -50360,7 +50579,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A728" s="5" t="s">
         <v>1099</v>
       </c>
@@ -50395,7 +50614,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A729" s="5" t="s">
         <v>1100</v>
       </c>
@@ -50430,7 +50649,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A730" s="5" t="s">
         <v>1101</v>
       </c>
@@ -50465,7 +50684,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A731" s="5" t="s">
         <v>1102</v>
       </c>
@@ -50500,7 +50719,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A732" s="5" t="s">
         <v>1105</v>
       </c>
@@ -50535,7 +50754,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A733" s="5" t="s">
         <v>1106</v>
       </c>
@@ -50570,7 +50789,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A734" s="5" t="s">
         <v>1107</v>
       </c>
@@ -50605,7 +50824,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A735" s="5" t="s">
         <v>1109</v>
       </c>
@@ -50640,7 +50859,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A736" s="5" t="s">
         <v>1110</v>
       </c>
@@ -50675,7 +50894,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="737" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A737" s="5" t="s">
         <v>1111</v>
       </c>
@@ -50710,7 +50929,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="738" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A738" s="5" t="s">
         <v>822</v>
       </c>
@@ -50745,7 +50964,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A739" s="5" t="s">
         <v>1112</v>
       </c>
@@ -50780,7 +50999,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A740" s="5" t="s">
         <v>1113</v>
       </c>
@@ -50815,7 +51034,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A741" s="5" t="s">
         <v>1114</v>
       </c>
@@ -50850,7 +51069,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="742" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A742" s="5" t="s">
         <v>1116</v>
       </c>
@@ -50885,7 +51104,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="743" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A743" s="5" t="s">
         <v>1117</v>
       </c>
@@ -50920,7 +51139,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="744" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A744" s="5" t="s">
         <v>1118</v>
       </c>
@@ -50955,7 +51174,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="745" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A745" s="5" t="s">
         <v>1120</v>
       </c>
@@ -50990,7 +51209,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A746" s="5" t="s">
         <v>1121</v>
       </c>
@@ -51025,7 +51244,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A747" s="5" t="s">
         <v>1122</v>
       </c>
@@ -51060,7 +51279,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="748" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A748" s="5" t="s">
         <v>1123</v>
       </c>
@@ -51095,7 +51314,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="749" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A749" s="5" t="s">
         <v>823</v>
       </c>
@@ -51130,7 +51349,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="750" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A750" s="5" t="s">
         <v>1124</v>
       </c>
@@ -51165,7 +51384,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A751" s="5" t="s">
         <v>1125</v>
       </c>
@@ -51200,7 +51419,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A752" s="5" t="s">
         <v>1126</v>
       </c>
@@ -51235,7 +51454,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A753" s="5" t="s">
         <v>1127</v>
       </c>
@@ -51270,7 +51489,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A754" s="5" t="s">
         <v>1128</v>
       </c>
@@ -51305,7 +51524,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A755" s="5" t="s">
         <v>1129</v>
       </c>
@@ -51340,7 +51559,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A756" s="5" t="s">
         <v>1130</v>
       </c>
@@ -51375,7 +51594,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A757" s="5" t="s">
         <v>1131</v>
       </c>
@@ -51410,7 +51629,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A758" s="5" t="s">
         <v>1132</v>
       </c>
@@ -51445,7 +51664,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A759" s="5" t="s">
         <v>1133</v>
       </c>
@@ -51480,7 +51699,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A760" s="5" t="s">
         <v>824</v>
       </c>
@@ -51515,7 +51734,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A761" s="5" t="s">
         <v>1134</v>
       </c>
@@ -51550,7 +51769,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A762" s="5" t="s">
         <v>1135</v>
       </c>
@@ -51585,7 +51804,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A763" s="5" t="s">
         <v>1136</v>
       </c>
@@ -51620,7 +51839,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A764" s="5" t="s">
         <v>1137</v>
       </c>
@@ -51655,7 +51874,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A765" s="5" t="s">
         <v>1138</v>
       </c>
@@ -51690,7 +51909,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A766" s="5" t="s">
         <v>1139</v>
       </c>
@@ -51725,7 +51944,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="767" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A767" s="5" t="s">
         <v>1140</v>
       </c>
@@ -51760,7 +51979,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="768" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A768" s="5" t="s">
         <v>1141</v>
       </c>
@@ -51795,7 +52014,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A769" s="5" t="s">
         <v>1142</v>
       </c>
@@ -51830,7 +52049,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="770" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A770" s="5" t="s">
         <v>1143</v>
       </c>
@@ -51865,7 +52084,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="771" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A771" s="5" t="s">
         <v>827</v>
       </c>
@@ -51900,7 +52119,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="772" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A772" s="5" t="s">
         <v>1144</v>
       </c>
@@ -51935,7 +52154,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="773" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A773" s="5" t="s">
         <v>1145</v>
       </c>
@@ -51970,7 +52189,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A774" s="5" t="s">
         <v>1146</v>
       </c>
@@ -52005,7 +52224,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="775" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A775" s="5" t="s">
         <v>1147</v>
       </c>
@@ -52040,7 +52259,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A776" s="5" t="s">
         <v>1148</v>
       </c>
@@ -52075,7 +52294,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A777" s="5" t="s">
         <v>1149</v>
       </c>
@@ -52110,7 +52329,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A778" s="5" t="s">
         <v>1150</v>
       </c>
@@ -52145,7 +52364,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A779" s="5" t="s">
         <v>1152</v>
       </c>
@@ -52180,7 +52399,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A780" s="5" t="s">
         <v>1153</v>
       </c>
@@ -52215,7 +52434,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A781" s="5" t="s">
         <v>828</v>
       </c>
@@ -52250,7 +52469,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A782" s="5" t="s">
         <v>1154</v>
       </c>
@@ -52285,7 +52504,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A783" s="5" t="s">
         <v>1155</v>
       </c>
@@ -52320,7 +52539,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A784" s="5" t="s">
         <v>1156</v>
       </c>
@@ -52355,7 +52574,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A785" s="5" t="s">
         <v>1157</v>
       </c>
@@ -52390,7 +52609,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A786" s="5" t="s">
         <v>1158</v>
       </c>
@@ -52425,7 +52644,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A787" s="5" t="s">
         <v>1159</v>
       </c>
@@ -52460,7 +52679,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A788" s="5" t="s">
         <v>1160</v>
       </c>
@@ -52495,7 +52714,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A789" s="5" t="s">
         <v>1161</v>
       </c>
@@ -52530,7 +52749,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A790" s="5" t="s">
         <v>1162</v>
       </c>
@@ -52565,7 +52784,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A791" s="5" t="s">
         <v>1163</v>
       </c>
@@ -52600,7 +52819,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A792" s="5" t="s">
         <v>829</v>
       </c>
@@ -52635,7 +52854,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A793" s="5" t="s">
         <v>1164</v>
       </c>
@@ -52670,7 +52889,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A794" s="5" t="s">
         <v>1165</v>
       </c>
@@ -52705,7 +52924,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A795" s="5" t="s">
         <v>1166</v>
       </c>
@@ -52740,7 +52959,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A796" s="5" t="s">
         <v>1167</v>
       </c>
@@ -52775,7 +52994,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A797" s="5" t="s">
         <v>1168</v>
       </c>
@@ -52810,7 +53029,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A798" s="5" t="s">
         <v>1169</v>
       </c>
@@ -52845,7 +53064,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A799" s="5" t="s">
         <v>1170</v>
       </c>
@@ -52880,7 +53099,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A800" s="5" t="s">
         <v>1171</v>
       </c>
@@ -52915,7 +53134,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="801" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A801" s="5" t="s">
         <v>1172</v>
       </c>
@@ -52950,7 +53169,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A802" s="5" t="s">
         <v>1173</v>
       </c>
@@ -52985,7 +53204,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="803" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A803" s="5" t="s">
         <v>830</v>
       </c>
@@ -53020,7 +53239,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="804" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A804" s="5" t="s">
         <v>1174</v>
       </c>
@@ -53055,7 +53274,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A805" s="5" t="s">
         <v>1175</v>
       </c>
@@ -53090,7 +53309,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="806" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A806" s="5" t="s">
         <v>1176</v>
       </c>
@@ -53125,7 +53344,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A807" s="5" t="s">
         <v>1177</v>
       </c>
@@ -53160,7 +53379,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A808" s="5" t="s">
         <v>1178</v>
       </c>
@@ -53195,7 +53414,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A809" s="5" t="s">
         <v>1179</v>
       </c>
@@ -53230,7 +53449,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A810" s="5" t="s">
         <v>1180</v>
       </c>
@@ -53265,7 +53484,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="811" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A811" s="5" t="s">
         <v>1181</v>
       </c>
@@ -53300,7 +53519,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="812" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A812" s="5" t="s">
         <v>1182</v>
       </c>
@@ -53335,7 +53554,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A813" s="5" t="s">
         <v>1183</v>
       </c>
@@ -53370,7 +53589,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="814" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A814" s="5" t="s">
         <v>789</v>
       </c>
@@ -53405,7 +53624,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A815" s="5" t="s">
         <v>831</v>
       </c>
@@ -53440,7 +53659,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="816" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A816" s="5" t="s">
         <v>1184</v>
       </c>
@@ -53475,7 +53694,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A817" s="5" t="s">
         <v>1185</v>
       </c>
@@ -53510,7 +53729,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="818" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A818" s="5" t="s">
         <v>1186</v>
       </c>
@@ -53545,7 +53764,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A819" s="5" t="s">
         <v>1187</v>
       </c>
@@ -53580,7 +53799,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A820" s="5" t="s">
         <v>1188</v>
       </c>
@@ -53615,7 +53834,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A821" s="5" t="s">
         <v>1189</v>
       </c>
@@ -53650,7 +53869,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A822" s="5" t="s">
         <v>1190</v>
       </c>
@@ -53685,7 +53904,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A823" s="5" t="s">
         <v>1191</v>
       </c>
@@ -53720,7 +53939,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="824" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A824" s="5" t="s">
         <v>1192</v>
       </c>
@@ -53755,7 +53974,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A825" s="5" t="s">
         <v>1193</v>
       </c>
@@ -53790,7 +54009,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="826" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A826" s="5" t="s">
         <v>833</v>
       </c>
@@ -53825,7 +54044,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A827" s="5" t="s">
         <v>1194</v>
       </c>
@@ -53860,7 +54079,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A828" s="5" t="s">
         <v>1195</v>
       </c>
@@ -53895,7 +54114,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A829" s="5" t="s">
         <v>1196</v>
       </c>
@@ -53930,7 +54149,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="830" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A830" s="5" t="s">
         <v>1197</v>
       </c>
@@ -53965,7 +54184,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A831" s="5" t="s">
         <v>1198</v>
       </c>
@@ -54000,7 +54219,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A832" s="5" t="s">
         <v>1199</v>
       </c>
@@ -54035,7 +54254,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A833" s="5" t="s">
         <v>1200</v>
       </c>
@@ -54070,7 +54289,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A834" s="5" t="s">
         <v>1201</v>
       </c>
@@ -54105,7 +54324,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A835" s="5" t="s">
         <v>1202</v>
       </c>
@@ -54140,7 +54359,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A836" s="5" t="s">
         <v>1203</v>
       </c>
@@ -54175,7 +54394,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A837" s="5" t="s">
         <v>836</v>
       </c>
@@ -54210,7 +54429,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A838" s="5" t="s">
         <v>1204</v>
       </c>
@@ -54245,7 +54464,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A839" s="5" t="s">
         <v>1205</v>
       </c>
@@ -54280,7 +54499,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A840" s="5" t="s">
         <v>1206</v>
       </c>
@@ -54315,7 +54534,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="841" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A841" s="5" t="s">
         <v>1207</v>
       </c>
@@ -54350,7 +54569,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="842" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A842" s="5" t="s">
         <v>1208</v>
       </c>
@@ -54385,7 +54604,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="843" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A843" s="5" t="s">
         <v>1209</v>
       </c>
@@ -54420,7 +54639,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A844" s="5" t="s">
         <v>1210</v>
       </c>
@@ -54455,7 +54674,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A845" s="5" t="s">
         <v>1211</v>
       </c>
@@ -54490,7 +54709,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="846" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A846" s="5" t="s">
         <v>1212</v>
       </c>
@@ -54525,7 +54744,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="847" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A847" s="5" t="s">
         <v>1739</v>
       </c>
@@ -54560,7 +54779,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="848" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A848" s="5" t="s">
         <v>838</v>
       </c>
@@ -54595,7 +54814,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="849" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A849" s="5" t="s">
         <v>1214</v>
       </c>
@@ -54630,7 +54849,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="850" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A850" s="5" t="s">
         <v>1218</v>
       </c>
@@ -54665,7 +54884,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="851" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A851" s="5" t="s">
         <v>1220</v>
       </c>
@@ -54700,7 +54919,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="852" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A852" s="5" t="s">
         <v>1222</v>
       </c>
@@ -54735,7 +54954,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="853" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A853" s="5" t="s">
         <v>1223</v>
       </c>
@@ -54770,7 +54989,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="854" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A854" s="5" t="s">
         <v>1224</v>
       </c>
@@ -54805,7 +55024,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="855" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A855" s="5" t="s">
         <v>1226</v>
       </c>
@@ -54840,7 +55059,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="856" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A856" s="5" t="s">
         <v>1227</v>
       </c>
@@ -54875,7 +55094,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="857" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A857" s="5" t="s">
         <v>1230</v>
       </c>
@@ -54910,7 +55129,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="858" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A858" s="5" t="s">
         <v>1233</v>
       </c>
@@ -54945,7 +55164,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="859" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A859" s="5" t="s">
         <v>839</v>
       </c>
@@ -54980,7 +55199,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="860" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A860" s="5" t="s">
         <v>1236</v>
       </c>
@@ -55015,7 +55234,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="861" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A861" s="5" t="s">
         <v>1237</v>
       </c>
@@ -55050,7 +55269,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="862" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A862" s="5" t="s">
         <v>1238</v>
       </c>
@@ -55085,7 +55304,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="863" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A863" s="5" t="s">
         <v>1241</v>
       </c>
@@ -55120,7 +55339,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="864" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A864" s="5" t="s">
         <v>1242</v>
       </c>
@@ -55155,7 +55374,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A865" s="5" t="s">
         <v>1244</v>
       </c>
@@ -55190,7 +55409,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A866" s="5" t="s">
         <v>1245</v>
       </c>
@@ -55225,7 +55444,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A867" s="5" t="s">
         <v>1246</v>
       </c>
@@ -55260,7 +55479,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A868" s="5" t="s">
         <v>1251</v>
       </c>
@@ -55295,7 +55514,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A869" s="5" t="s">
         <v>1252</v>
       </c>
@@ -55330,7 +55549,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A870" s="5" t="s">
         <v>840</v>
       </c>
@@ -55365,7 +55584,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A871" s="5" t="s">
         <v>1253</v>
       </c>
@@ -55400,7 +55619,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A872" s="5" t="s">
         <v>1254</v>
       </c>
@@ -55435,7 +55654,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A873" s="5" t="s">
         <v>1255</v>
       </c>
@@ -55470,7 +55689,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A874" s="5" t="s">
         <v>1256</v>
       </c>
@@ -55505,7 +55724,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="875" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A875" s="5" t="s">
         <v>1257</v>
       </c>
@@ -55540,7 +55759,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="876" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A876" s="5" t="s">
         <v>1258</v>
       </c>
@@ -55575,7 +55794,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="877" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A877" s="5" t="s">
         <v>1259</v>
       </c>
@@ -55610,7 +55829,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="878" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A878" s="5" t="s">
         <v>1260</v>
       </c>
@@ -55645,7 +55864,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="879" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A879" s="5" t="s">
         <v>1261</v>
       </c>
@@ -55680,7 +55899,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="880" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A880" s="5" t="s">
         <v>1262</v>
       </c>
@@ -55715,7 +55934,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="881" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A881" s="5" t="s">
         <v>841</v>
       </c>
@@ -55750,7 +55969,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="882" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A882" s="5" t="s">
         <v>1263</v>
       </c>
@@ -55785,7 +56004,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="883" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A883" s="5" t="s">
         <v>1264</v>
       </c>
@@ -55820,7 +56039,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="884" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A884" s="5" t="s">
         <v>1266</v>
       </c>
@@ -55855,7 +56074,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A885" s="5" t="s">
         <v>1267</v>
       </c>
@@ -55890,7 +56109,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="886" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A886" s="5" t="s">
         <v>1272</v>
       </c>
@@ -55925,7 +56144,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="887" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A887" s="5" t="s">
         <v>1273</v>
       </c>
@@ -55960,7 +56179,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="888" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A888" s="5" t="s">
         <v>1274</v>
       </c>
@@ -55995,7 +56214,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="889" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A889" s="5" t="s">
         <v>1275</v>
       </c>
@@ -56030,7 +56249,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="890" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A890" s="5" t="s">
         <v>1276</v>
       </c>
@@ -56065,7 +56284,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="891" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A891" s="5" t="s">
         <v>1277</v>
       </c>
@@ -56100,7 +56319,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A892" s="5" t="s">
         <v>842</v>
       </c>
@@ -56135,7 +56354,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="893" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A893" s="5" t="s">
         <v>1281</v>
       </c>
@@ -56170,7 +56389,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="894" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A894" s="5" t="s">
         <v>1282</v>
       </c>
@@ -56205,7 +56424,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="895" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A895" s="5" t="s">
         <v>1283</v>
       </c>
@@ -56240,7 +56459,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="896" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A896" s="5" t="s">
         <v>1284</v>
       </c>
@@ -56275,7 +56494,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="897" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A897" s="5" t="s">
         <v>1285</v>
       </c>
@@ -56310,7 +56529,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="898" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A898" s="5" t="s">
         <v>1286</v>
       </c>
@@ -56345,7 +56564,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="899" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A899" s="5" t="s">
         <v>1287</v>
       </c>
@@ -56380,7 +56599,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="900" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A900" s="5" t="s">
         <v>1288</v>
       </c>
@@ -56415,7 +56634,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="901" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A901" s="5" t="s">
         <v>1289</v>
       </c>
@@ -56450,7 +56669,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="902" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A902" s="5" t="s">
         <v>1290</v>
       </c>
@@ -56485,7 +56704,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="903" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A903" s="5" t="s">
         <v>844</v>
       </c>
@@ -56520,7 +56739,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="904" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A904" s="5" t="s">
         <v>1292</v>
       </c>
@@ -56555,7 +56774,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="905" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A905" s="5" t="s">
         <v>1294</v>
       </c>
@@ -56590,7 +56809,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="906" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A906" s="5" t="s">
         <v>1295</v>
       </c>
@@ -56625,7 +56844,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="907" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A907" s="5" t="s">
         <v>1296</v>
       </c>
@@ -56660,7 +56879,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="908" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A908" s="5" t="s">
         <v>1297</v>
       </c>
@@ -56695,7 +56914,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="909" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A909" s="5" t="s">
         <v>1298</v>
       </c>
@@ -56730,7 +56949,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="910" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A910" s="5" t="s">
         <v>1299</v>
       </c>
@@ -56765,7 +56984,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="911" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A911" s="5" t="s">
         <v>1300</v>
       </c>
@@ -56800,7 +57019,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="912" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A912" s="5" t="s">
         <v>1301</v>
       </c>
@@ -56835,7 +57054,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="913" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A913" s="5" t="s">
         <v>1302</v>
       </c>
@@ -56870,7 +57089,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="914" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A914" s="5" t="s">
         <v>845</v>
       </c>
@@ -56905,7 +57124,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="915" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A915" s="5" t="s">
         <v>1303</v>
       </c>
@@ -56940,7 +57159,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="916" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A916" s="5" t="s">
         <v>1304</v>
       </c>
@@ -56975,7 +57194,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="917" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A917" s="5" t="s">
         <v>1305</v>
       </c>
@@ -57010,7 +57229,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="918" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A918" s="5" t="s">
         <v>1307</v>
       </c>
@@ -57045,7 +57264,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="919" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A919" s="5" t="s">
         <v>1308</v>
       </c>
@@ -57080,7 +57299,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="920" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A920" s="5" t="s">
         <v>1309</v>
       </c>
@@ -57115,7 +57334,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="921" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A921" s="5" t="s">
         <v>1311</v>
       </c>
@@ -57150,7 +57369,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="922" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A922" s="5" t="s">
         <v>1315</v>
       </c>
@@ -57185,7 +57404,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="923" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A923" s="5" t="s">
         <v>1316</v>
       </c>
@@ -57220,7 +57439,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="924" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A924" s="5" t="s">
         <v>1317</v>
       </c>
@@ -57255,7 +57474,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="925" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A925" s="5" t="s">
         <v>790</v>
       </c>
@@ -57290,7 +57509,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="926" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A926" s="5" t="s">
         <v>846</v>
       </c>
@@ -57325,7 +57544,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="927" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A927" s="5" t="s">
         <v>1318</v>
       </c>
@@ -57360,7 +57579,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="928" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A928" s="5" t="s">
         <v>1319</v>
       </c>
@@ -57395,7 +57614,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="929" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A929" s="5" t="s">
         <v>1320</v>
       </c>
@@ -57430,7 +57649,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="930" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A930" s="5" t="s">
         <v>1321</v>
       </c>
@@ -57465,7 +57684,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="931" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A931" s="5" t="s">
         <v>1322</v>
       </c>
@@ -57500,7 +57719,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="932" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A932" s="5" t="s">
         <v>1323</v>
       </c>
@@ -57535,7 +57754,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="933" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A933" s="5" t="s">
         <v>1324</v>
       </c>
@@ -57570,7 +57789,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="934" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A934" s="5" t="s">
         <v>1325</v>
       </c>
@@ -57605,7 +57824,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="935" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A935" s="5" t="s">
         <v>1326</v>
       </c>
@@ -57640,7 +57859,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="936" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A936" s="5" t="s">
         <v>1327</v>
       </c>
@@ -57675,7 +57894,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="937" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A937" s="5" t="s">
         <v>847</v>
       </c>
@@ -57710,7 +57929,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="938" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A938" s="5" t="s">
         <v>1328</v>
       </c>
@@ -57745,7 +57964,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="939" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A939" s="5" t="s">
         <v>1329</v>
       </c>
@@ -57780,7 +57999,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="940" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A940" s="5" t="s">
         <v>1330</v>
       </c>
@@ -57815,7 +58034,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="941" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A941" s="5" t="s">
         <v>1333</v>
       </c>
@@ -57850,7 +58069,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="942" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A942" s="5" t="s">
         <v>1334</v>
       </c>
@@ -57885,7 +58104,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="943" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A943" s="5" t="s">
         <v>1335</v>
       </c>
@@ -57920,7 +58139,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="944" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A944" s="5" t="s">
         <v>1336</v>
       </c>
@@ -57955,7 +58174,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="945" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A945" s="5" t="s">
         <v>1337</v>
       </c>
@@ -57990,7 +58209,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="946" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A946" s="5" t="s">
         <v>1338</v>
       </c>
@@ -58025,7 +58244,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="947" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A947" s="5" t="s">
         <v>1339</v>
       </c>
@@ -58060,7 +58279,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="948" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A948" s="5" t="s">
         <v>848</v>
       </c>
@@ -58095,7 +58314,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="949" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A949" s="5" t="s">
         <v>1340</v>
       </c>
@@ -58130,7 +58349,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="950" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A950" s="5" t="s">
         <v>1341</v>
       </c>
@@ -58165,7 +58384,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="951" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A951" s="5" t="s">
         <v>1343</v>
       </c>
@@ -58200,7 +58419,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="952" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A952" s="5" t="s">
         <v>1344</v>
       </c>
@@ -58235,7 +58454,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="953" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A953" s="5" t="s">
         <v>1345</v>
       </c>
@@ -58270,7 +58489,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="954" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A954" s="5" t="s">
         <v>1346</v>
       </c>
@@ -58305,7 +58524,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="955" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A955" s="5" t="s">
         <v>1347</v>
       </c>
@@ -58340,7 +58559,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="956" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A956" s="5" t="s">
         <v>1348</v>
       </c>
@@ -58375,7 +58594,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="957" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A957" s="5" t="s">
         <v>1349</v>
       </c>
@@ -58410,7 +58629,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="958" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A958" s="5" t="s">
         <v>1353</v>
       </c>
@@ -58445,7 +58664,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="959" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A959" s="5" t="s">
         <v>849</v>
       </c>
@@ -58480,7 +58699,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="960" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A960" s="5" t="s">
         <v>1356</v>
       </c>
@@ -58515,7 +58734,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="961" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A961" s="5" t="s">
         <v>1358</v>
       </c>
@@ -58550,7 +58769,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="962" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A962" s="5" t="s">
         <v>1359</v>
       </c>
@@ -58585,7 +58804,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="963" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A963" s="5" t="s">
         <v>1360</v>
       </c>
@@ -58620,7 +58839,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="964" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A964" s="5" t="s">
         <v>1363</v>
       </c>
@@ -58655,7 +58874,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="965" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A965" s="5" t="s">
         <v>1364</v>
       </c>
@@ -58690,7 +58909,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="966" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A966" s="5" t="s">
         <v>1365</v>
       </c>
@@ -58725,7 +58944,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="967" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A967" s="5" t="s">
         <v>1366</v>
       </c>
@@ -58760,7 +58979,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="968" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A968" s="5" t="s">
         <v>1367</v>
       </c>
@@ -58795,7 +59014,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="969" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A969" s="5" t="s">
         <v>850</v>
       </c>
@@ -58830,7 +59049,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="970" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A970" s="5" t="s">
         <v>1368</v>
       </c>
@@ -58865,7 +59084,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="971" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A971" s="5" t="s">
         <v>1369</v>
       </c>
@@ -58900,7 +59119,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="972" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A972" s="5" t="s">
         <v>1370</v>
       </c>
@@ -58935,7 +59154,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="973" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A973" s="5" t="s">
         <v>1371</v>
       </c>
@@ -58970,7 +59189,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="974" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A974" s="5" t="s">
         <v>1372</v>
       </c>
@@ -59005,7 +59224,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="975" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A975" s="5" t="s">
         <v>1373</v>
       </c>
@@ -59040,7 +59259,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="976" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A976" s="5" t="s">
         <v>1374</v>
       </c>
@@ -59075,7 +59294,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="977" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A977" s="5" t="s">
         <v>1375</v>
       </c>
@@ -59110,7 +59329,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="978" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A978" s="5" t="s">
         <v>1376</v>
       </c>
@@ -59145,7 +59364,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="979" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A979" s="5" t="s">
         <v>1377</v>
       </c>
@@ -59180,7 +59399,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="980" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A980" s="5" t="s">
         <v>851</v>
       </c>
@@ -59215,7 +59434,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="981" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A981" s="5" t="s">
         <v>1378</v>
       </c>
@@ -59250,7 +59469,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="982" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A982" s="5" t="s">
         <v>1379</v>
       </c>
@@ -59285,7 +59504,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="983" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A983" s="5" t="s">
         <v>1380</v>
       </c>
@@ -59320,7 +59539,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="984" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A984" s="5" t="s">
         <v>1381</v>
       </c>
@@ -59355,7 +59574,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="985" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A985" s="5" t="s">
         <v>1382</v>
       </c>
@@ -59390,7 +59609,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="986" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A986" s="5" t="s">
         <v>1383</v>
       </c>
@@ -59425,7 +59644,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="987" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A987" s="5" t="s">
         <v>1384</v>
       </c>
@@ -59460,7 +59679,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="988" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A988" s="5" t="s">
         <v>1388</v>
       </c>
@@ -59495,7 +59714,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="989" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A989" s="5" t="s">
         <v>1389</v>
       </c>
@@ -59530,7 +59749,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="990" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A990" s="5" t="s">
         <v>1390</v>
       </c>
@@ -59565,7 +59784,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="991" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A991" s="5" t="s">
         <v>854</v>
       </c>
@@ -59600,7 +59819,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="992" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A992" s="5" t="s">
         <v>1391</v>
       </c>
@@ -59635,7 +59854,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="993" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A993" s="5" t="s">
         <v>1395</v>
       </c>
@@ -59670,7 +59889,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="994" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A994" s="5" t="s">
         <v>1396</v>
       </c>
@@ -59705,7 +59924,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="995" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A995" s="5" t="s">
         <v>1397</v>
       </c>
@@ -59740,7 +59959,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="996" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A996" s="5" t="s">
         <v>1398</v>
       </c>
@@ -59775,7 +59994,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="997" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A997" s="5" t="s">
         <v>1399</v>
       </c>
@@ -59810,7 +60029,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="998" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A998" s="5" t="s">
         <v>1400</v>
       </c>
@@ -59845,7 +60064,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="999" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A999" s="5" t="s">
         <v>1401</v>
       </c>
@@ -59880,7 +60099,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1000" s="5" t="s">
         <v>1402</v>
       </c>
@@ -59915,7 +60134,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1001" s="5" t="s">
         <v>1403</v>
       </c>
@@ -59950,7 +60169,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1002" s="5" t="s">
         <v>855</v>
       </c>
@@ -59985,7 +60204,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1003" s="5" t="s">
         <v>1405</v>
       </c>
@@ -60020,7 +60239,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1004" s="5" t="s">
         <v>1406</v>
       </c>
@@ -60055,7 +60274,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1005" s="5" t="s">
         <v>1409</v>
       </c>
@@ -60090,7 +60309,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1006" s="5" t="s">
         <v>1410</v>
       </c>
@@ -60125,7 +60344,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1007" s="5" t="s">
         <v>1411</v>
       </c>
@@ -60160,7 +60379,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1008" s="5" t="s">
         <v>1412</v>
       </c>
@@ -60195,7 +60414,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1009" s="5" t="s">
         <v>1413</v>
       </c>
@@ -60230,7 +60449,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1010" s="5" t="s">
         <v>1414</v>
       </c>
@@ -60265,7 +60484,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1011" s="5" t="s">
         <v>1419</v>
       </c>
@@ -60300,7 +60519,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1012" s="5" t="s">
         <v>1420</v>
       </c>
@@ -60335,7 +60554,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1013" s="5" t="s">
         <v>856</v>
       </c>
@@ -60370,7 +60589,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1014" s="5" t="s">
         <v>1424</v>
       </c>
@@ -60405,7 +60624,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1015" s="5" t="s">
         <v>1425</v>
       </c>
@@ -60440,7 +60659,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1016" s="5" t="s">
         <v>1426</v>
       </c>
@@ -60475,7 +60694,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1017" s="5" t="s">
         <v>1427</v>
       </c>
@@ -60510,7 +60729,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1018" s="5" t="s">
         <v>1428</v>
       </c>
@@ -60545,7 +60764,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1019" s="5" t="s">
         <v>1430</v>
       </c>
@@ -60580,7 +60799,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1020" s="5" t="s">
         <v>1431</v>
       </c>
@@ -60615,7 +60834,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1021" s="5" t="s">
         <v>1432</v>
       </c>
@@ -60650,7 +60869,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1022" s="5" t="s">
         <v>1436</v>
       </c>
@@ -60685,7 +60904,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1023" s="5" t="s">
         <v>1437</v>
       </c>
@@ -60720,7 +60939,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="1024" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1024" s="5" t="s">
         <v>857</v>
       </c>
@@ -60755,7 +60974,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1025" s="5" t="s">
         <v>1438</v>
       </c>
@@ -60790,7 +61009,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1026" s="5" t="s">
         <v>1439</v>
       </c>
@@ -60825,7 +61044,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="1027" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1027" s="5" t="s">
         <v>1440</v>
       </c>
@@ -60860,7 +61079,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="1028" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1028" s="5" t="s">
         <v>1441</v>
       </c>
@@ -60895,7 +61114,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1029" s="5" t="s">
         <v>1442</v>
       </c>
@@ -60930,7 +61149,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1030" s="5" t="s">
         <v>1443</v>
       </c>
@@ -60965,7 +61184,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1031" s="5" t="s">
         <v>1444</v>
       </c>
@@ -61000,7 +61219,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1032" s="5" t="s">
         <v>1447</v>
       </c>
@@ -61035,7 +61254,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1033" s="5" t="s">
         <v>1450</v>
       </c>
@@ -61070,7 +61289,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1034" s="5" t="s">
         <v>1452</v>
       </c>
@@ -61105,7 +61324,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1035" s="5" t="s">
         <v>791</v>
       </c>
@@ -61140,7 +61359,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="1036" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1036" s="5" t="s">
         <v>858</v>
       </c>
@@ -61175,7 +61394,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1037" s="5" t="s">
         <v>1455</v>
       </c>
@@ -61210,7 +61429,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1038" s="5" t="s">
         <v>1456</v>
       </c>
@@ -61245,7 +61464,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1039" s="5" t="s">
         <v>1457</v>
       </c>
@@ -61280,7 +61499,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1040" s="5" t="s">
         <v>1458</v>
       </c>
@@ -61315,7 +61534,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1041" s="5" t="s">
         <v>1459</v>
       </c>
@@ -61350,7 +61569,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1042" s="5" t="s">
         <v>1462</v>
       </c>
@@ -61385,7 +61604,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1043" s="5" t="s">
         <v>1463</v>
       </c>
@@ -61420,7 +61639,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1044" s="5" t="s">
         <v>1464</v>
       </c>
@@ -61455,7 +61674,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1045" s="5" t="s">
         <v>1466</v>
       </c>
@@ -61490,7 +61709,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1046" s="5" t="s">
         <v>1467</v>
       </c>
@@ -61525,7 +61744,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1047" s="5" t="s">
         <v>859</v>
       </c>
@@ -61560,7 +61779,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1048" s="5" t="s">
         <v>1468</v>
       </c>
@@ -61595,7 +61814,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="1049" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1049" s="5" t="s">
         <v>1469</v>
       </c>
@@ -61630,7 +61849,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1050" s="5" t="s">
         <v>1470</v>
       </c>
@@ -61665,7 +61884,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1051" s="5" t="s">
         <v>1471</v>
       </c>
@@ -61700,7 +61919,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1052" s="5" t="s">
         <v>1473</v>
       </c>
@@ -61735,7 +61954,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1053" s="5" t="s">
         <v>1475</v>
       </c>
@@ -61770,7 +61989,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1054" s="5" t="s">
         <v>1476</v>
       </c>
@@ -61805,7 +62024,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1055" s="5" t="s">
         <v>1477</v>
       </c>
@@ -61840,7 +62059,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1056" s="5" t="s">
         <v>1478</v>
       </c>
@@ -61875,7 +62094,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="1057" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1057" s="5" t="s">
         <v>1479</v>
       </c>
@@ -61910,7 +62129,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="1058" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1058" s="5" t="s">
         <v>860</v>
       </c>
@@ -61945,7 +62164,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="1059" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1059" s="5" t="s">
         <v>1480</v>
       </c>
@@ -61980,7 +62199,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1060" s="5" t="s">
         <v>1481</v>
       </c>
@@ -62015,7 +62234,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1061" s="5" t="s">
         <v>1483</v>
       </c>
@@ -62050,7 +62269,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1062" s="5" t="s">
         <v>1484</v>
       </c>
@@ -62085,7 +62304,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="1063" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1063" s="5" t="s">
         <v>1485</v>
       </c>
@@ -62120,7 +62339,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1064" s="5" t="s">
         <v>1486</v>
       </c>
@@ -62155,7 +62374,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="1065" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1065" s="5" t="s">
         <v>1487</v>
       </c>
@@ -62190,7 +62409,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1066" s="5" t="s">
         <v>1488</v>
       </c>
@@ -62225,7 +62444,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1067" s="5" t="s">
         <v>1489</v>
       </c>
@@ -62260,7 +62479,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="1068" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1068" s="5" t="s">
         <v>1490</v>
       </c>
@@ -62295,7 +62514,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="1069" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1069" s="5" t="s">
         <v>861</v>
       </c>
@@ -62330,7 +62549,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="1070" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1070" s="5" t="s">
         <v>1491</v>
       </c>
@@ -62365,7 +62584,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1071" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1071" s="5" t="s">
         <v>1493</v>
       </c>
@@ -62400,7 +62619,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="1072" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1072" s="5" t="s">
         <v>1494</v>
       </c>
@@ -62435,7 +62654,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="1073" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1073" s="5" t="s">
         <v>1497</v>
       </c>
@@ -62499,7 +62718,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="1075" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1075" s="5" t="s">
         <v>1498</v>
       </c>
@@ -62534,7 +62753,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="1076" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1076" s="5" t="s">
         <v>1499</v>
       </c>
@@ -62569,7 +62788,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="1077" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1077" s="5" t="s">
         <v>1500</v>
       </c>
@@ -62604,7 +62823,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="1078" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1078" s="5" t="s">
         <v>1501</v>
       </c>
@@ -62639,7 +62858,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="1079" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1079" s="5" t="s">
         <v>1502</v>
       </c>
@@ -62674,7 +62893,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1080" s="5" t="s">
         <v>862</v>
       </c>
@@ -62709,7 +62928,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1081" s="5" t="s">
         <v>1503</v>
       </c>
@@ -62744,7 +62963,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1082" s="5" t="s">
         <v>1504</v>
       </c>
@@ -62779,7 +62998,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="1083" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1083" s="5" t="s">
         <v>1505</v>
       </c>
@@ -62814,7 +63033,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="1084" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1084" s="5" t="s">
         <v>1506</v>
       </c>
@@ -62849,7 +63068,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="1085" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1085" s="5" t="s">
         <v>1507</v>
       </c>
@@ -62884,7 +63103,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="1086" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1086" s="5" t="s">
         <v>1508</v>
       </c>
@@ -62919,7 +63138,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1087" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1087" s="5" t="s">
         <v>1509</v>
       </c>
@@ -62954,7 +63173,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="1088" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1088" s="5" t="s">
         <v>1510</v>
       </c>
@@ -62989,7 +63208,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="1089" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1089" s="5" t="s">
         <v>1511</v>
       </c>
@@ -63024,7 +63243,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="1090" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1090" s="5" t="s">
         <v>1512</v>
       </c>
@@ -63059,7 +63278,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="1091" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1091" s="5" t="s">
         <v>863</v>
       </c>
@@ -63094,7 +63313,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="1092" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1092" s="5" t="s">
         <v>1513</v>
       </c>
@@ -63129,7 +63348,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="1093" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1093" s="5" t="s">
         <v>1514</v>
       </c>
@@ -63164,7 +63383,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="1094" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1094" s="5" t="s">
         <v>1515</v>
       </c>
@@ -63199,7 +63418,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="1095" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1095" s="5" t="s">
         <v>1516</v>
       </c>
@@ -63234,7 +63453,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="1096" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1096" s="5" t="s">
         <v>1517</v>
       </c>
@@ -63269,7 +63488,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="1097" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1097" s="5" t="s">
         <v>1518</v>
       </c>
@@ -63304,7 +63523,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="1098" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1098" s="5" t="s">
         <v>1521</v>
       </c>
@@ -63339,7 +63558,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="1099" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1099" s="5" t="s">
         <v>1522</v>
       </c>
@@ -63374,7 +63593,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1100" s="5" t="s">
         <v>1523</v>
       </c>
@@ -63409,7 +63628,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="1101" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1101" s="5" t="s">
         <v>1527</v>
       </c>
@@ -63444,7 +63663,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="1102" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1102" s="5" t="s">
         <v>864</v>
       </c>
@@ -63479,7 +63698,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="1103" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1103" s="5" t="s">
         <v>1528</v>
       </c>
@@ -63514,7 +63733,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="1104" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1104" s="5" t="s">
         <v>1529</v>
       </c>
@@ -63549,7 +63768,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1105" s="5" t="s">
         <v>1530</v>
       </c>
@@ -63584,7 +63803,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="1106" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1106" s="5" t="s">
         <v>1531</v>
       </c>
@@ -63619,7 +63838,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="1107" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1107" s="5" t="s">
         <v>1533</v>
       </c>
@@ -63654,7 +63873,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="1108" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1108" s="5" t="s">
         <v>1535</v>
       </c>
@@ -63689,7 +63908,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="1109" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1109" s="5" t="s">
         <v>1536</v>
       </c>
@@ -63724,7 +63943,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="1110" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1110" s="5" t="s">
         <v>1537</v>
       </c>
@@ -63759,7 +63978,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1111" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1111" s="5" t="s">
         <v>1538</v>
       </c>
@@ -63794,7 +64013,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="1112" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1112" s="5" t="s">
         <v>1539</v>
       </c>
@@ -63829,7 +64048,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="1113" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1113" s="5" t="s">
         <v>865</v>
       </c>
@@ -63864,7 +64083,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="1114" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1114" s="5" t="s">
         <v>1540</v>
       </c>
@@ -63899,7 +64118,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="1115" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1115" s="5" t="s">
         <v>1541</v>
       </c>
@@ -63934,7 +64153,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="1116" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1116" s="5" t="s">
         <v>1542</v>
       </c>
@@ -63969,7 +64188,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="1117" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1117" s="5" t="s">
         <v>1543</v>
       </c>
@@ -64004,7 +64223,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="1118" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1118" s="5" t="s">
         <v>1544</v>
       </c>
@@ -64039,7 +64258,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="1119" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1119" s="5" t="s">
         <v>1545</v>
       </c>
@@ -64074,7 +64293,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="1120" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1120" s="5" t="s">
         <v>1546</v>
       </c>
@@ -64109,7 +64328,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="1121" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1121" s="5" t="s">
         <v>1547</v>
       </c>
@@ -64144,7 +64363,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="1122" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1122" s="5" t="s">
         <v>866</v>
       </c>
@@ -64179,7 +64398,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1123" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1123" s="5" t="s">
         <v>2723</v>
       </c>
@@ -64214,7 +64433,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="1124" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1124" s="5" t="s">
         <v>792</v>
       </c>
@@ -64249,7 +64468,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="1125" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1125" s="5" t="s">
         <v>867</v>
       </c>
@@ -64284,7 +64503,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="1126" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1126" s="5" t="s">
         <v>868</v>
       </c>
@@ -64319,7 +64538,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="1127" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1127" s="5" t="s">
         <v>869</v>
       </c>
@@ -64354,7 +64573,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="1128" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1128" s="5" t="s">
         <v>870</v>
       </c>
@@ -64389,7 +64608,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="1129" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1129" s="5" t="s">
         <v>871</v>
       </c>
@@ -64424,7 +64643,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1130" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1130" s="5" t="s">
         <v>872</v>
       </c>
@@ -64459,7 +64678,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="1131" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1131" s="5" t="s">
         <v>873</v>
       </c>
@@ -64494,7 +64713,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="1132" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1132" s="5" t="s">
         <v>874</v>
       </c>
@@ -64529,7 +64748,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="1133" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1133" s="5" t="s">
         <v>875</v>
       </c>
@@ -64564,7 +64783,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="1134" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1134" s="5" t="s">
         <v>876</v>
       </c>
@@ -64599,7 +64818,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="1135" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1135" s="5" t="s">
         <v>793</v>
       </c>
@@ -64634,7 +64853,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="1136" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1136" s="5" t="s">
         <v>877</v>
       </c>
@@ -64669,7 +64888,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1137" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1137" s="5" t="s">
         <v>878</v>
       </c>
@@ -64704,7 +64923,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="1138" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1138" s="5" t="s">
         <v>880</v>
       </c>
@@ -64739,7 +64958,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="1139" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1139" s="5" t="s">
         <v>881</v>
       </c>
@@ -64774,7 +64993,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1140" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1140" s="5" t="s">
         <v>883</v>
       </c>
@@ -64809,7 +65028,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="1141" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1141" s="5" t="s">
         <v>884</v>
       </c>
@@ -64844,7 +65063,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="1142" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1142" s="5" t="s">
         <v>886</v>
       </c>
@@ -64879,7 +65098,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="1143" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1143" s="5" t="s">
         <v>887</v>
       </c>
@@ -64914,7 +65133,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1144" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1144" s="5" t="s">
         <v>892</v>
       </c>
@@ -64949,7 +65168,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="1145" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1145" s="5" t="s">
         <v>893</v>
       </c>
@@ -64984,7 +65203,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="1146" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1146" s="5" t="s">
         <v>794</v>
       </c>
@@ -65019,7 +65238,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="1147" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1147" s="5" t="s">
         <v>894</v>
       </c>
@@ -65054,7 +65273,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="1148" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1148" s="5" t="s">
         <v>895</v>
       </c>
@@ -65089,7 +65308,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="1149" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1149" s="5" t="s">
         <v>896</v>
       </c>
@@ -65124,7 +65343,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="1150" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1150" s="5" t="s">
         <v>897</v>
       </c>
@@ -65159,7 +65378,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="1151" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1151" s="5" t="s">
         <v>898</v>
       </c>
@@ -65194,7 +65413,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="1152" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1152" s="5" t="s">
         <v>899</v>
       </c>
@@ -65229,7 +65448,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="1153" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1153" s="5" t="s">
         <v>900</v>
       </c>
@@ -65264,7 +65483,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="1154" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1154" s="5" t="s">
         <v>901</v>
       </c>
@@ -65299,7 +65518,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="1155" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1155" s="5" t="s">
         <v>903</v>
       </c>
@@ -65334,7 +65553,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="1156" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1156" s="5" t="s">
         <v>905</v>
       </c>
@@ -65369,7 +65588,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="1157" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1157" s="5" t="s">
         <v>795</v>
       </c>
@@ -65404,7 +65623,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="1158" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1158" s="5" t="s">
         <v>906</v>
       </c>
@@ -65439,7 +65658,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="1159" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1159" s="5" t="s">
         <v>907</v>
       </c>
@@ -65474,7 +65693,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="1160" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1160" s="5" t="s">
         <v>908</v>
       </c>
@@ -65509,7 +65728,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="1161" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1161" s="5" t="s">
         <v>909</v>
       </c>
@@ -65544,7 +65763,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1162" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1162" s="5" t="s">
         <v>910</v>
       </c>
@@ -65579,7 +65798,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="1163" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1163" s="5" t="s">
         <v>911</v>
       </c>
@@ -65614,7 +65833,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1164" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1164" s="5" t="s">
         <v>912</v>
       </c>
@@ -65649,7 +65868,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1165" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1165" s="5" t="s">
         <v>913</v>
       </c>
@@ -65684,7 +65903,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="1166" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1166" s="5" t="s">
         <v>914</v>
       </c>
@@ -65719,7 +65938,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1167" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1167" s="5" t="s">
         <v>918</v>
       </c>
@@ -65754,7 +65973,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="1168" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1168" s="5" t="s">
         <v>1151</v>
       </c>
@@ -65786,7 +66005,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="1169" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1169" s="5" t="s">
         <v>1362</v>
       </c>
@@ -65818,7 +66037,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="1170" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1170" s="5" t="s">
         <v>888</v>
       </c>
@@ -65888,7 +66107,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="1172" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1172" s="5" t="s">
         <v>1280</v>
       </c>
@@ -65923,7 +66142,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="1173" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1173" s="5" t="s">
         <v>1312</v>
       </c>
@@ -65958,7 +66177,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="1174" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1174" s="5" t="s">
         <v>1313</v>
       </c>
@@ -65993,7 +66212,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="1175" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1175" s="5" t="s">
         <v>1314</v>
       </c>
@@ -66798,7 +67017,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="1198" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1198" s="5" t="s">
         <v>526</v>
       </c>
@@ -66926,7 +67145,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="1202" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1202" s="5" t="s">
         <v>526</v>
       </c>
@@ -67071,7 +67290,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="1207" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1207" s="5" t="s">
         <v>544</v>
       </c>
@@ -67103,7 +67322,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="1208" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1208" s="5" t="s">
         <v>1119</v>
       </c>
@@ -67135,7 +67354,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="1209" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1209" s="5" t="s">
         <v>802</v>
       </c>
@@ -67167,7 +67386,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="1210" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1210" s="5" t="s">
         <v>239</v>
       </c>
@@ -67199,7 +67418,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="1211" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1211" s="5" t="s">
         <v>1342</v>
       </c>
@@ -67388,7 +67607,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="1217" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1217" s="5" t="s">
         <v>485</v>
       </c>
@@ -67423,7 +67642,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="1218" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1218" s="5" t="s">
         <v>545</v>
       </c>
@@ -67469,7 +67688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -70060,4 +70279,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{afded6f5-d1d0-4596-a1c0-00c047dd6749}" enabled="1" method="Standard" siteId="{7a41925e-f697-4f7c-bec3-0470887ac752}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>